--- a/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/Products.xlsx
+++ b/StoreManagement.Website/obj/Release/Package/PackageTmp/Resource/ExportedTemplate/Products.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:F1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
